--- a/output/Book1-vxlan.xlsx
+++ b/output/Book1-vxlan.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wcorv\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\OneDrive-Backup\Documents\GitHub\gns3-Project6\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C373008B-8E27-446D-9933-E8CFCB5B5285}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30B7D9A7-5D41-4B8E-B50F-670529A07490}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="570" windowWidth="19320" windowHeight="14235" xr2:uid="{102FA548-4443-4636-B54A-57C638D9BC59}"/>
+    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15840" xr2:uid="{102FA548-4443-4636-B54A-57C638D9BC59}"/>
   </bookViews>
   <sheets>
     <sheet name="Pt 5 Data Plane Learning - F&amp;L" sheetId="1" r:id="rId1"/>
@@ -501,16 +501,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>159204</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>40821</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>86758</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>124932</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>245962</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>165753</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -533,8 +533,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7067550" y="0"/>
-          <a:ext cx="7401958" cy="7935432"/>
+          <a:off x="19467740" y="421821"/>
+          <a:ext cx="7434615" cy="7935432"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>458880</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>39355</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2960F01C-2FBC-44F2-B68A-24D3296A71F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7067550" y="381000"/>
+          <a:ext cx="12041280" cy="8992855"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -894,8 +938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2B4CAE6-9DDD-46A5-BF70-4CBC87910AAB}">
   <dimension ref="A1:C87"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S12" sqref="S12"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B49" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
